--- a/src/main/resources/static/excel/部件库.xlsx
+++ b/src/main/resources/static/excel/部件库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22860" windowHeight="13405"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>编码</t>
   </si>
@@ -44,33 +44,6 @@
   </si>
   <si>
     <t>修改</t>
-  </si>
-  <si>
-    <t>MZ-01</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>卫衣帽子</t>
-  </si>
-  <si>
-    <t>面里合帽中缝，四线拷边，帽顶1.5cm吊袢，面里定位，帽口合缝四线拷边，帽沿   cm处压明线（或冚车），汽眼处穿成品绳子帽绳通码长   cm含吊钟；装帽子点位对准，四线拷边。领口一圈贴织带，暗压0.1CM止口线，面露单线0.6CM。</t>
-  </si>
-  <si>
-    <t>M后技术负责人</t>
-  </si>
-  <si>
-    <t>CSL001</t>
-  </si>
-  <si>
-    <t>领型</t>
-  </si>
-  <si>
-    <t>衬衫领工艺</t>
-  </si>
-  <si>
-    <t>上领按样板画做，上领车翻，内缝修至0.6CM，上口暗压0.1CM线，领有勾势不可反翘；领座按净样板包烫画修，三夹一合上下领；装领刀眼对准，吃势均匀，一圈压线0.1Cm止口线。</t>
   </si>
 </sst>
 </file>
@@ -558,7 +531,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,49 +757,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2699385" y="363855"/>
-          <a:ext cx="581025" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,15 +1020,15 @@
   <dimension ref="A1:J287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="A2" sqref="$A2:$XFD287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="13.7117117117117" customWidth="1"/>
+    <col min="5" max="5" width="13.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,68 +1061,28 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4">
-        <v>43474.6791666667</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4">
-        <v>44725.9743055556</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" ht="48" customHeight="1" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4">
-        <v>43456.7888888889</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="4">
-        <v>44725.9743055556</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" ht="48" customHeight="1" spans="1:10">
       <c r="A4" s="2"/>
@@ -4605,6 +4495,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excel/部件库.xlsx
+++ b/src/main/resources/static/excel/部件库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28128" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>编码</t>
   </si>
@@ -37,25 +37,18 @@
     <t>创建人</t>
   </si>
   <si>
-    <t>创建</t>
-  </si>
-  <si>
     <t>修改者</t>
-  </si>
-  <si>
-    <t>修改</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-7804]yy/m/d\ AM/PMh:mm"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -679,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -691,9 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1017,18 +1007,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J287"/>
+  <dimension ref="A1:H287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD287"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="13.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,14 +1043,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1068,11 +1052,9 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" ht="48" customHeight="1" spans="1:10">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="48" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1080,11 +1062,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" ht="48" customHeight="1" spans="1:10">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="48" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1092,11 +1072,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" ht="48" customHeight="1" spans="1:10">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="48" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1104,11 +1082,9 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" ht="48" customHeight="1" spans="1:10">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="48" customHeight="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1116,11 +1092,9 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" ht="48" customHeight="1" spans="1:10">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="48" customHeight="1" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1128,11 +1102,9 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" ht="48" customHeight="1" spans="1:10">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="48" customHeight="1" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1140,11 +1112,9 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" ht="48" customHeight="1" spans="1:10">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="48" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1152,11 +1122,9 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" ht="47" customHeight="1" spans="1:10">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" ht="47" customHeight="1" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1164,11 +1132,9 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" ht="48" customHeight="1" spans="1:10">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" ht="48" customHeight="1" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1176,11 +1142,9 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" ht="48" customHeight="1" spans="1:10">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" ht="48" customHeight="1" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1188,11 +1152,9 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" ht="48" customHeight="1" spans="1:10">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" ht="48" customHeight="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1200,11 +1162,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" ht="48" customHeight="1" spans="1:10">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" ht="48" customHeight="1" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1212,11 +1172,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" ht="48" customHeight="1" spans="1:10">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" ht="48" customHeight="1" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1224,11 +1182,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" ht="48" customHeight="1" spans="1:10">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" ht="48" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1236,11 +1192,9 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" ht="48" customHeight="1" spans="1:10">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" ht="48" customHeight="1" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1248,11 +1202,9 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" ht="48" customHeight="1" spans="1:10">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" ht="48" customHeight="1" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1260,11 +1212,9 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" ht="48" customHeight="1" spans="1:10">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" ht="48" customHeight="1" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1272,11 +1222,9 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" ht="48" customHeight="1" spans="1:10">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" ht="48" customHeight="1" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1284,11 +1232,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" ht="48" customHeight="1" spans="1:10">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" ht="48" customHeight="1" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1296,11 +1242,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" ht="48" customHeight="1" spans="1:10">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" ht="48" customHeight="1" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1308,11 +1252,9 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" ht="48" customHeight="1" spans="1:10">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" ht="48" customHeight="1" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1320,11 +1262,9 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" ht="48" customHeight="1" spans="1:10">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" ht="48" customHeight="1" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1332,11 +1272,9 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" ht="48" customHeight="1" spans="1:10">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" ht="48" customHeight="1" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1344,11 +1282,9 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" ht="48" customHeight="1" spans="1:10">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" ht="48" customHeight="1" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1356,11 +1292,9 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" ht="48" customHeight="1" spans="1:10">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" ht="48" customHeight="1" spans="1:8">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1368,11 +1302,9 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" ht="48" customHeight="1" spans="1:10">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" ht="48" customHeight="1" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1380,11 +1312,9 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" ht="48" customHeight="1" spans="1:10">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" ht="48" customHeight="1" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1392,11 +1322,9 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" ht="48" customHeight="1" spans="1:10">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" ht="48" customHeight="1" spans="1:8">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1404,11 +1332,9 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" ht="48" customHeight="1" spans="1:10">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" ht="48" customHeight="1" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1416,11 +1342,9 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" ht="48" customHeight="1" spans="1:10">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" ht="48" customHeight="1" spans="1:8">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1428,11 +1352,9 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" ht="48" customHeight="1" spans="1:10">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" ht="48" customHeight="1" spans="1:8">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1440,11 +1362,9 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" ht="48" customHeight="1" spans="1:10">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" ht="48" customHeight="1" spans="1:8">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1452,11 +1372,9 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" ht="48" customHeight="1" spans="1:10">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" ht="48" customHeight="1" spans="1:8">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1464,11 +1382,9 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" ht="48" customHeight="1" spans="1:10">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" ht="48" customHeight="1" spans="1:8">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1476,11 +1392,9 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" ht="48" customHeight="1" spans="1:10">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" ht="48" customHeight="1" spans="1:8">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1488,11 +1402,9 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" ht="48" customHeight="1" spans="1:10">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" ht="48" customHeight="1" spans="1:8">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1500,11 +1412,9 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" ht="48" customHeight="1" spans="1:10">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" ht="48" customHeight="1" spans="1:8">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1512,479 +1422,399 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" ht="57" customHeight="1" spans="1:10">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" ht="57" customHeight="1" spans="1:8">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" ht="57" customHeight="1" spans="1:10">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" ht="57" customHeight="1" spans="1:8">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" ht="42" customHeight="1" spans="1:10">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" ht="42" customHeight="1" spans="1:8">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" ht="71" customHeight="1" spans="1:10">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" ht="71" customHeight="1" spans="1:8">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" ht="42" customHeight="1" spans="1:10">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" ht="42" customHeight="1" spans="1:8">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" ht="42" customHeight="1" spans="1:10">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" ht="42" customHeight="1" spans="1:8">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" ht="57" customHeight="1" spans="1:10">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" ht="57" customHeight="1" spans="1:8">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" ht="71" customHeight="1" spans="1:10">
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" ht="71" customHeight="1" spans="1:8">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" ht="71" customHeight="1" spans="1:10">
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" ht="71" customHeight="1" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" ht="71" customHeight="1" spans="1:10">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" ht="71" customHeight="1" spans="1:8">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" ht="71" customHeight="1" spans="1:10">
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" ht="71" customHeight="1" spans="1:8">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" ht="57" customHeight="1" spans="1:10">
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" ht="57" customHeight="1" spans="1:8">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" ht="57" customHeight="1" spans="1:10">
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" ht="57" customHeight="1" spans="1:8">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" ht="57" customHeight="1" spans="1:10">
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" ht="57" customHeight="1" spans="1:8">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" ht="57" customHeight="1" spans="1:10">
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" ht="57" customHeight="1" spans="1:8">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" ht="42" customHeight="1" spans="1:10">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" ht="42" customHeight="1" spans="1:8">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" ht="42" customHeight="1" spans="1:10">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" ht="42" customHeight="1" spans="1:8">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" ht="57" customHeight="1" spans="1:10">
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" ht="57" customHeight="1" spans="1:8">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" ht="57" customHeight="1" spans="1:10">
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" ht="57" customHeight="1" spans="1:8">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" ht="42" customHeight="1" spans="1:10">
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" ht="42" customHeight="1" spans="1:8">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" ht="28" customHeight="1" spans="1:10">
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" ht="28" customHeight="1" spans="1:8">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" ht="57" customHeight="1" spans="1:10">
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" ht="57" customHeight="1" spans="1:8">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" ht="42" customHeight="1" spans="1:10">
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" ht="42" customHeight="1" spans="1:8">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" ht="42" customHeight="1" spans="1:10">
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" ht="42" customHeight="1" spans="1:8">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" ht="28" customHeight="1" spans="1:10">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" ht="28" customHeight="1" spans="1:8">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="4"/>
-    </row>
-    <row r="65" ht="42" customHeight="1" spans="1:10">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" ht="42" customHeight="1" spans="1:8">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" ht="42" customHeight="1" spans="1:10">
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" ht="42" customHeight="1" spans="1:8">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" ht="28" customHeight="1" spans="1:10">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" ht="28" customHeight="1" spans="1:8">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" ht="42" customHeight="1" spans="1:10">
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" ht="42" customHeight="1" spans="1:8">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" ht="71" customHeight="1" spans="1:10">
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" ht="71" customHeight="1" spans="1:8">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" ht="57" customHeight="1" spans="1:10">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" ht="57" customHeight="1" spans="1:8">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" ht="57" customHeight="1" spans="1:10">
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" ht="57" customHeight="1" spans="1:8">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" ht="42" customHeight="1" spans="1:10">
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" ht="42" customHeight="1" spans="1:8">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="4"/>
-    </row>
-    <row r="73" ht="42" customHeight="1" spans="1:10">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" ht="42" customHeight="1" spans="1:8">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="4"/>
-    </row>
-    <row r="74" ht="42" customHeight="1" spans="1:10">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" ht="42" customHeight="1" spans="1:8">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="5"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" ht="42" customHeight="1" spans="1:10">
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" ht="42" customHeight="1" spans="1:8">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="4"/>
-    </row>
-    <row r="76" ht="42" customHeight="1" spans="1:10">
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" ht="42" customHeight="1" spans="1:8">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="77" ht="42" customHeight="1" spans="1:10">
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" ht="42" customHeight="1" spans="1:8">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="5"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="4"/>
-    </row>
-    <row r="78" ht="42" customHeight="1" spans="1:10">
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" ht="42" customHeight="1" spans="1:8">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="5"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" ht="46" customHeight="1" spans="1:10">
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" ht="46" customHeight="1" spans="1:8">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1992,143 +1822,119 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" ht="48" customHeight="1" spans="1:10">
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" ht="48" customHeight="1" spans="1:8">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="5"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="81" ht="42" customHeight="1" spans="1:10">
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" ht="42" customHeight="1" spans="1:8">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="5"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" ht="42" customHeight="1" spans="1:10">
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" ht="42" customHeight="1" spans="1:8">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="5"/>
+      <c r="D82" s="4"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" ht="42" customHeight="1" spans="1:10">
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" ht="42" customHeight="1" spans="1:8">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="5"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="4"/>
-    </row>
-    <row r="84" ht="42" customHeight="1" spans="1:10">
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" ht="42" customHeight="1" spans="1:8">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="5"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="4"/>
-    </row>
-    <row r="85" ht="42" customHeight="1" spans="1:10">
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" ht="42" customHeight="1" spans="1:8">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="5"/>
+      <c r="D85" s="4"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="4"/>
-    </row>
-    <row r="86" ht="42" customHeight="1" spans="1:10">
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" ht="42" customHeight="1" spans="1:8">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="5"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" ht="42" customHeight="1" spans="1:10">
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" ht="42" customHeight="1" spans="1:8">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="5"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" ht="42" customHeight="1" spans="1:10">
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" ht="42" customHeight="1" spans="1:8">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="5"/>
+      <c r="D88" s="4"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" ht="42" customHeight="1" spans="1:10">
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" ht="42" customHeight="1" spans="1:8">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="5"/>
+      <c r="D89" s="4"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" ht="42" customHeight="1" spans="1:10">
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" ht="42" customHeight="1" spans="1:8">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="5"/>
+      <c r="D90" s="4"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2136,11 +1942,9 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2148,11 +1952,9 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2160,11 +1962,9 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2172,47 +1972,39 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="4"/>
-    </row>
-    <row r="95" ht="42" customHeight="1" spans="1:10">
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" ht="42" customHeight="1" spans="1:8">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="4"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="4"/>
-    </row>
-    <row r="96" ht="57" customHeight="1" spans="1:10">
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" ht="57" customHeight="1" spans="1:8">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="5"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="4"/>
-    </row>
-    <row r="97" ht="57" customHeight="1" spans="1:10">
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" ht="57" customHeight="1" spans="1:8">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="4"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="4"/>
-    </row>
-    <row r="98" ht="48" customHeight="1" spans="1:10">
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" ht="48" customHeight="1" spans="1:8">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2220,11 +2012,9 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="4"/>
-    </row>
-    <row r="99" ht="48" customHeight="1" spans="1:10">
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" ht="48" customHeight="1" spans="1:8">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2232,11 +2022,9 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="4"/>
-    </row>
-    <row r="100" ht="48" customHeight="1" spans="1:10">
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" ht="48" customHeight="1" spans="1:8">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2244,11 +2032,9 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="4"/>
-    </row>
-    <row r="101" ht="48" customHeight="1" spans="1:10">
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" ht="48" customHeight="1" spans="1:8">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2256,11 +2042,9 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="4"/>
-    </row>
-    <row r="102" ht="48" customHeight="1" spans="1:10">
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" ht="48" customHeight="1" spans="1:8">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2268,11 +2052,9 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="4"/>
-    </row>
-    <row r="103" ht="48" customHeight="1" spans="1:10">
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" ht="48" customHeight="1" spans="1:8">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2280,11 +2062,9 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="4"/>
-    </row>
-    <row r="104" ht="48" customHeight="1" spans="1:10">
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" ht="48" customHeight="1" spans="1:8">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2292,11 +2072,9 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="4"/>
-    </row>
-    <row r="105" ht="48" customHeight="1" spans="1:10">
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" ht="48" customHeight="1" spans="1:8">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2304,11 +2082,9 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="4"/>
-    </row>
-    <row r="106" ht="48" customHeight="1" spans="1:10">
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" ht="48" customHeight="1" spans="1:8">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2316,11 +2092,9 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="4"/>
-    </row>
-    <row r="107" ht="48" customHeight="1" spans="1:10">
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" ht="48" customHeight="1" spans="1:8">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2328,11 +2102,9 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="4"/>
-    </row>
-    <row r="108" ht="48" customHeight="1" spans="1:10">
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" ht="48" customHeight="1" spans="1:8">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2340,11 +2112,9 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="4"/>
-    </row>
-    <row r="109" ht="48" customHeight="1" spans="1:10">
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" ht="48" customHeight="1" spans="1:8">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2352,11 +2122,9 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="4"/>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2364,11 +2132,9 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="4"/>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2376,11 +2142,9 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="4"/>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2388,11 +2152,9 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="4"/>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2400,11 +2162,9 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="4"/>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2412,11 +2172,9 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="4"/>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2424,11 +2182,9 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="4"/>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2436,11 +2192,9 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="4"/>
-    </row>
-    <row r="117" ht="48" customHeight="1" spans="1:10">
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" ht="48" customHeight="1" spans="1:8">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2448,11 +2202,9 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="4"/>
-    </row>
-    <row r="118" ht="48" customHeight="1" spans="1:10">
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" ht="48" customHeight="1" spans="1:8">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2460,11 +2212,9 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="4"/>
-    </row>
-    <row r="119" ht="48" customHeight="1" spans="1:10">
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" ht="48" customHeight="1" spans="1:8">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2472,11 +2222,9 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="4"/>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2484,11 +2232,9 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="4"/>
-    </row>
-    <row r="121" ht="48" customHeight="1" spans="1:10">
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" ht="48" customHeight="1" spans="1:8">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2496,11 +2242,9 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="2"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="4"/>
-    </row>
-    <row r="122" ht="48" customHeight="1" spans="1:10">
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" ht="48" customHeight="1" spans="1:8">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2508,11 +2252,9 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="2"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="4"/>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2520,11 +2262,9 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="4"/>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2532,11 +2272,9 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="2"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="4"/>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2544,11 +2282,9 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="2"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="4"/>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2556,11 +2292,9 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="2"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="4"/>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2568,11 +2302,9 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="2"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="4"/>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2580,179 +2312,149 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="2"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="4"/>
-    </row>
-    <row r="129" ht="57" customHeight="1" spans="1:10">
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" ht="57" customHeight="1" spans="1:8">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="5"/>
+      <c r="D129" s="4"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="2"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="4"/>
-    </row>
-    <row r="130" ht="42" customHeight="1" spans="1:10">
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" ht="42" customHeight="1" spans="1:8">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="5"/>
+      <c r="D130" s="4"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="2"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="4"/>
-    </row>
-    <row r="131" ht="85" customHeight="1" spans="1:10">
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" ht="85" customHeight="1" spans="1:8">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="5"/>
+      <c r="D131" s="4"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="2"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="4"/>
-    </row>
-    <row r="132" ht="57" customHeight="1" spans="1:10">
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" ht="57" customHeight="1" spans="1:8">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="5"/>
+      <c r="D132" s="4"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="2"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="4"/>
-    </row>
-    <row r="133" ht="71" customHeight="1" spans="1:10">
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" ht="71" customHeight="1" spans="1:8">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="5"/>
+      <c r="D133" s="4"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="2"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="4"/>
-    </row>
-    <row r="134" ht="85" customHeight="1" spans="1:10">
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" ht="85" customHeight="1" spans="1:8">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="5"/>
+      <c r="D134" s="4"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="2"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="4"/>
-    </row>
-    <row r="135" ht="71" customHeight="1" spans="1:10">
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" ht="71" customHeight="1" spans="1:8">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="5"/>
+      <c r="D135" s="4"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="2"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="4"/>
-    </row>
-    <row r="136" ht="57" customHeight="1" spans="1:10">
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" ht="57" customHeight="1" spans="1:8">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="5"/>
+      <c r="D136" s="4"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="2"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="4"/>
-    </row>
-    <row r="137" ht="85" customHeight="1" spans="1:10">
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" ht="85" customHeight="1" spans="1:8">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="5"/>
+      <c r="D137" s="4"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="2"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="2"/>
-      <c r="J137" s="4"/>
-    </row>
-    <row r="138" ht="85" customHeight="1" spans="1:10">
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" ht="85" customHeight="1" spans="1:8">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="5"/>
+      <c r="D138" s="4"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="2"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="4"/>
-    </row>
-    <row r="139" ht="71" customHeight="1" spans="1:10">
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" ht="71" customHeight="1" spans="1:8">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="5"/>
+      <c r="D139" s="4"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="2"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="4"/>
-    </row>
-    <row r="140" ht="71" customHeight="1" spans="1:10">
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" ht="71" customHeight="1" spans="1:8">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="5"/>
+      <c r="D140" s="4"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="2"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="4"/>
-    </row>
-    <row r="141" ht="71" customHeight="1" spans="1:10">
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" ht="71" customHeight="1" spans="1:8">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="5"/>
+      <c r="D141" s="4"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="2"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="4"/>
-    </row>
-    <row r="142" ht="57" customHeight="1" spans="1:10">
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" ht="57" customHeight="1" spans="1:8">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="5"/>
+      <c r="D142" s="4"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="2"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="4"/>
-    </row>
-    <row r="143" ht="48" customHeight="1" spans="1:10">
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" ht="48" customHeight="1" spans="1:8">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2760,11 +2462,9 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="2"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="4"/>
-    </row>
-    <row r="144" ht="48" customHeight="1" spans="1:10">
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" ht="48" customHeight="1" spans="1:8">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2772,11 +2472,9 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="2"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="4"/>
-    </row>
-    <row r="145" ht="48" customHeight="1" spans="1:10">
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" ht="48" customHeight="1" spans="1:8">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2784,11 +2482,9 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="2"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="4"/>
-    </row>
-    <row r="146" ht="48" customHeight="1" spans="1:10">
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" ht="48" customHeight="1" spans="1:8">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2796,11 +2492,9 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="2"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="4"/>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2808,11 +2502,9 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="2"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="4"/>
-    </row>
-    <row r="148" ht="48" customHeight="1" spans="1:10">
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" ht="48" customHeight="1" spans="1:8">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2820,11 +2512,9 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="2"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="4"/>
-    </row>
-    <row r="149" ht="48" customHeight="1" spans="1:10">
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" ht="48" customHeight="1" spans="1:8">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2832,11 +2522,9 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="2"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="4"/>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2844,11 +2532,9 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="2"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="4"/>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2856,11 +2542,9 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="2"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="4"/>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2868,11 +2552,9 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="2"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="4"/>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2880,11 +2562,9 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="2"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="4"/>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2892,11 +2572,9 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="2"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="4"/>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2904,11 +2582,9 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="2"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="4"/>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2916,11 +2592,9 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="2"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="4"/>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2928,11 +2602,9 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="4"/>
-    </row>
-    <row r="158" ht="48" customHeight="1" spans="1:10">
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" ht="48" customHeight="1" spans="1:8">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2940,11 +2612,9 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="2"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="4"/>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2952,11 +2622,9 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="2"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="4"/>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2964,11 +2632,9 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="2"/>
-      <c r="H160" s="4"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="4"/>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2976,23 +2642,19 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="2"/>
-      <c r="H161" s="4"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="4"/>
-    </row>
-    <row r="162" ht="28" customHeight="1" spans="1:10">
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" ht="28" customHeight="1" spans="1:8">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
-      <c r="D162" s="5"/>
+      <c r="D162" s="4"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="2"/>
-      <c r="H162" s="4"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="4"/>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3000,11 +2662,9 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="2"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="4"/>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3012,23 +2672,19 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="4"/>
-    </row>
-    <row r="165" ht="28" customHeight="1" spans="1:10">
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" ht="28" customHeight="1" spans="1:8">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="5"/>
+      <c r="D165" s="4"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="2"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="4"/>
-    </row>
-    <row r="166" ht="48" customHeight="1" spans="1:10">
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" ht="48" customHeight="1" spans="1:8">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3036,11 +2692,9 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="2"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="4"/>
-    </row>
-    <row r="167" ht="48" customHeight="1" spans="1:10">
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" ht="48" customHeight="1" spans="1:8">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3048,11 +2702,9 @@
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="2"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="4"/>
-    </row>
-    <row r="168" ht="48" customHeight="1" spans="1:10">
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" ht="48" customHeight="1" spans="1:8">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3060,11 +2712,9 @@
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="2"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="4"/>
-    </row>
-    <row r="169" ht="48" customHeight="1" spans="1:10">
+      <c r="H168" s="2"/>
+    </row>
+    <row r="169" ht="48" customHeight="1" spans="1:8">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3072,11 +2722,9 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="2"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="4"/>
-    </row>
-    <row r="170" ht="48" customHeight="1" spans="1:10">
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" ht="48" customHeight="1" spans="1:8">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3084,11 +2732,9 @@
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="2"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="4"/>
-    </row>
-    <row r="171" ht="48" customHeight="1" spans="1:10">
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" ht="48" customHeight="1" spans="1:8">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3096,239 +2742,199 @@
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="2"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="4"/>
-    </row>
-    <row r="172" ht="42" customHeight="1" spans="1:10">
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" ht="42" customHeight="1" spans="1:8">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="5"/>
+      <c r="D172" s="4"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="2"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="4"/>
-    </row>
-    <row r="173" ht="42" customHeight="1" spans="1:10">
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" ht="42" customHeight="1" spans="1:8">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="5"/>
+      <c r="D173" s="4"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="2"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="4"/>
-    </row>
-    <row r="174" ht="42" customHeight="1" spans="1:10">
+      <c r="H173" s="2"/>
+    </row>
+    <row r="174" ht="42" customHeight="1" spans="1:8">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="5"/>
+      <c r="D174" s="4"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="2"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="4"/>
-    </row>
-    <row r="175" ht="42" customHeight="1" spans="1:10">
+      <c r="H174" s="2"/>
+    </row>
+    <row r="175" ht="42" customHeight="1" spans="1:8">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="5"/>
+      <c r="D175" s="4"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="2"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="4"/>
-    </row>
-    <row r="176" ht="71" customHeight="1" spans="1:10">
+      <c r="H175" s="2"/>
+    </row>
+    <row r="176" ht="71" customHeight="1" spans="1:8">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
-      <c r="D176" s="5"/>
+      <c r="D176" s="4"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="2"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="4"/>
-    </row>
-    <row r="177" ht="57" customHeight="1" spans="1:10">
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" ht="57" customHeight="1" spans="1:8">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="5"/>
+      <c r="D177" s="4"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="2"/>
-      <c r="H177" s="4"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="4"/>
-    </row>
-    <row r="178" ht="42" customHeight="1" spans="1:10">
+      <c r="H177" s="2"/>
+    </row>
+    <row r="178" ht="42" customHeight="1" spans="1:8">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="5"/>
+      <c r="D178" s="4"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="2"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="4"/>
-    </row>
-    <row r="179" ht="42" customHeight="1" spans="1:10">
+      <c r="H178" s="2"/>
+    </row>
+    <row r="179" ht="42" customHeight="1" spans="1:8">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="5"/>
+      <c r="D179" s="4"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="2"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="4"/>
-    </row>
-    <row r="180" ht="42" customHeight="1" spans="1:10">
+      <c r="H179" s="2"/>
+    </row>
+    <row r="180" ht="42" customHeight="1" spans="1:8">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="5"/>
+      <c r="D180" s="4"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="2"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="4"/>
-    </row>
-    <row r="181" ht="57" customHeight="1" spans="1:10">
+      <c r="H180" s="2"/>
+    </row>
+    <row r="181" ht="57" customHeight="1" spans="1:8">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="5"/>
+      <c r="D181" s="4"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="2"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="4"/>
-    </row>
-    <row r="182" ht="57" customHeight="1" spans="1:10">
+      <c r="H181" s="2"/>
+    </row>
+    <row r="182" ht="57" customHeight="1" spans="1:8">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="5"/>
+      <c r="D182" s="4"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="2"/>
-      <c r="H182" s="4"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="4"/>
-    </row>
-    <row r="183" ht="57" customHeight="1" spans="1:10">
+      <c r="H182" s="2"/>
+    </row>
+    <row r="183" ht="57" customHeight="1" spans="1:8">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="5"/>
+      <c r="D183" s="4"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="2"/>
-      <c r="H183" s="4"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="4"/>
-    </row>
-    <row r="184" ht="71" customHeight="1" spans="1:10">
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" ht="71" customHeight="1" spans="1:8">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="5"/>
+      <c r="D184" s="4"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="2"/>
-      <c r="H184" s="4"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="4"/>
-    </row>
-    <row r="185" ht="57" customHeight="1" spans="1:10">
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" ht="57" customHeight="1" spans="1:8">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
-      <c r="D185" s="5"/>
+      <c r="D185" s="4"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="4"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="4"/>
-    </row>
-    <row r="186" ht="42" customHeight="1" spans="1:10">
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" ht="42" customHeight="1" spans="1:8">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
-      <c r="D186" s="5"/>
+      <c r="D186" s="4"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="2"/>
-      <c r="H186" s="4"/>
-      <c r="I186" s="2"/>
-      <c r="J186" s="4"/>
-    </row>
-    <row r="187" ht="57" customHeight="1" spans="1:10">
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" ht="57" customHeight="1" spans="1:8">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="5"/>
+      <c r="D187" s="4"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="2"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="4"/>
-    </row>
-    <row r="188" ht="28" customHeight="1" spans="1:10">
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" ht="28" customHeight="1" spans="1:8">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="5"/>
+      <c r="D188" s="4"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="2"/>
-      <c r="H188" s="4"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="4"/>
-    </row>
-    <row r="189" ht="42" customHeight="1" spans="1:10">
+      <c r="H188" s="2"/>
+    </row>
+    <row r="189" ht="42" customHeight="1" spans="1:8">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="5"/>
+      <c r="D189" s="4"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="2"/>
-      <c r="H189" s="4"/>
-      <c r="I189" s="2"/>
-      <c r="J189" s="4"/>
-    </row>
-    <row r="190" ht="42" customHeight="1" spans="1:10">
+      <c r="H189" s="2"/>
+    </row>
+    <row r="190" ht="42" customHeight="1" spans="1:8">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
-      <c r="D190" s="5"/>
+      <c r="D190" s="4"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="2"/>
-      <c r="H190" s="4"/>
-      <c r="I190" s="2"/>
-      <c r="J190" s="4"/>
-    </row>
-    <row r="191" ht="48" customHeight="1" spans="1:10">
+      <c r="H190" s="2"/>
+    </row>
+    <row r="191" ht="48" customHeight="1" spans="1:8">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3336,11 +2942,9 @@
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="2"/>
-      <c r="H191" s="4"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="4"/>
-    </row>
-    <row r="192" ht="48" customHeight="1" spans="1:10">
+      <c r="H191" s="2"/>
+    </row>
+    <row r="192" ht="48" customHeight="1" spans="1:8">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3348,11 +2952,9 @@
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="2"/>
-      <c r="H192" s="4"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="4"/>
-    </row>
-    <row r="193" ht="48" customHeight="1" spans="1:10">
+      <c r="H192" s="2"/>
+    </row>
+    <row r="193" ht="48" customHeight="1" spans="1:8">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3360,11 +2962,9 @@
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="2"/>
-      <c r="H193" s="4"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="4"/>
-    </row>
-    <row r="194" ht="48" customHeight="1" spans="1:10">
+      <c r="H193" s="2"/>
+    </row>
+    <row r="194" ht="48" customHeight="1" spans="1:8">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3372,11 +2972,9 @@
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="2"/>
-      <c r="H194" s="4"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="4"/>
-    </row>
-    <row r="195" ht="48" customHeight="1" spans="1:10">
+      <c r="H194" s="2"/>
+    </row>
+    <row r="195" ht="48" customHeight="1" spans="1:8">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3384,11 +2982,9 @@
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="2"/>
-      <c r="H195" s="4"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="4"/>
-    </row>
-    <row r="196" ht="48" customHeight="1" spans="1:10">
+      <c r="H195" s="2"/>
+    </row>
+    <row r="196" ht="48" customHeight="1" spans="1:8">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3396,11 +2992,9 @@
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="2"/>
-      <c r="H196" s="4"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="4"/>
-    </row>
-    <row r="197" ht="48" customHeight="1" spans="1:10">
+      <c r="H196" s="2"/>
+    </row>
+    <row r="197" ht="48" customHeight="1" spans="1:8">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3408,11 +3002,9 @@
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="2"/>
-      <c r="H197" s="4"/>
-      <c r="I197" s="2"/>
-      <c r="J197" s="4"/>
-    </row>
-    <row r="198" ht="48" customHeight="1" spans="1:10">
+      <c r="H197" s="2"/>
+    </row>
+    <row r="198" ht="48" customHeight="1" spans="1:8">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3420,11 +3012,9 @@
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="2"/>
-      <c r="H198" s="4"/>
-      <c r="I198" s="2"/>
-      <c r="J198" s="4"/>
-    </row>
-    <row r="199" ht="48" customHeight="1" spans="1:10">
+      <c r="H198" s="2"/>
+    </row>
+    <row r="199" ht="48" customHeight="1" spans="1:8">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3432,11 +3022,9 @@
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="2"/>
-      <c r="H199" s="4"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="4"/>
-    </row>
-    <row r="200" ht="48" customHeight="1" spans="1:10">
+      <c r="H199" s="2"/>
+    </row>
+    <row r="200" ht="48" customHeight="1" spans="1:8">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3444,11 +3032,9 @@
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="2"/>
-      <c r="H200" s="4"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="4"/>
-    </row>
-    <row r="201" ht="48" customHeight="1" spans="1:10">
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" ht="48" customHeight="1" spans="1:8">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3456,155 +3042,129 @@
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="2"/>
-      <c r="H201" s="4"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="4"/>
-    </row>
-    <row r="202" ht="42" customHeight="1" spans="1:10">
+      <c r="H201" s="2"/>
+    </row>
+    <row r="202" ht="42" customHeight="1" spans="1:8">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
-      <c r="D202" s="5"/>
+      <c r="D202" s="4"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="2"/>
-      <c r="H202" s="4"/>
-      <c r="I202" s="2"/>
-      <c r="J202" s="4"/>
-    </row>
-    <row r="203" ht="42" customHeight="1" spans="1:10">
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" ht="42" customHeight="1" spans="1:8">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
-      <c r="D203" s="5"/>
+      <c r="D203" s="4"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="2"/>
-      <c r="H203" s="4"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="4"/>
-    </row>
-    <row r="204" ht="42" customHeight="1" spans="1:10">
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" ht="42" customHeight="1" spans="1:8">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
-      <c r="D204" s="5"/>
+      <c r="D204" s="4"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="2"/>
-      <c r="H204" s="4"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="4"/>
-    </row>
-    <row r="205" ht="42" customHeight="1" spans="1:10">
+      <c r="H204" s="2"/>
+    </row>
+    <row r="205" ht="42" customHeight="1" spans="1:8">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
-      <c r="D205" s="5"/>
+      <c r="D205" s="4"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="2"/>
-      <c r="H205" s="4"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="4"/>
-    </row>
-    <row r="206" ht="42" customHeight="1" spans="1:10">
+      <c r="H205" s="2"/>
+    </row>
+    <row r="206" ht="42" customHeight="1" spans="1:8">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
-      <c r="D206" s="5"/>
+      <c r="D206" s="4"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="2"/>
-      <c r="H206" s="4"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="4"/>
-    </row>
-    <row r="207" ht="42" customHeight="1" spans="1:10">
+      <c r="H206" s="2"/>
+    </row>
+    <row r="207" ht="42" customHeight="1" spans="1:8">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="5"/>
+      <c r="D207" s="4"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="2"/>
-      <c r="H207" s="4"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="4"/>
-    </row>
-    <row r="208" ht="42" customHeight="1" spans="1:10">
+      <c r="H207" s="2"/>
+    </row>
+    <row r="208" ht="42" customHeight="1" spans="1:8">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
-      <c r="D208" s="5"/>
+      <c r="D208" s="4"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="2"/>
-      <c r="H208" s="4"/>
-      <c r="I208" s="2"/>
-      <c r="J208" s="4"/>
-    </row>
-    <row r="209" ht="42" customHeight="1" spans="1:10">
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" ht="42" customHeight="1" spans="1:8">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
-      <c r="D209" s="5"/>
+      <c r="D209" s="4"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="2"/>
-      <c r="H209" s="4"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="4"/>
-    </row>
-    <row r="210" ht="42" customHeight="1" spans="1:10">
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" ht="42" customHeight="1" spans="1:8">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
-      <c r="D210" s="5"/>
+      <c r="D210" s="4"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="2"/>
-      <c r="H210" s="4"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="4"/>
-    </row>
-    <row r="211" ht="42" customHeight="1" spans="1:10">
+      <c r="H210" s="2"/>
+    </row>
+    <row r="211" ht="42" customHeight="1" spans="1:8">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
-      <c r="D211" s="5"/>
+      <c r="D211" s="4"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="2"/>
-      <c r="H211" s="4"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="4"/>
-    </row>
-    <row r="212" ht="42" customHeight="1" spans="1:10">
+      <c r="H211" s="2"/>
+    </row>
+    <row r="212" ht="42" customHeight="1" spans="1:8">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="5"/>
+      <c r="D212" s="4"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="2"/>
-      <c r="H212" s="4"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="4"/>
-    </row>
-    <row r="213" ht="71" customHeight="1" spans="1:10">
+      <c r="H212" s="2"/>
+    </row>
+    <row r="213" ht="71" customHeight="1" spans="1:8">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
-      <c r="D213" s="5"/>
+      <c r="D213" s="4"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
       <c r="G213" s="2"/>
-      <c r="H213" s="4"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="4"/>
-    </row>
-    <row r="214" ht="48" customHeight="1" spans="1:10">
+      <c r="H213" s="2"/>
+    </row>
+    <row r="214" ht="48" customHeight="1" spans="1:8">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3612,11 +3172,9 @@
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="2"/>
-      <c r="H214" s="4"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="4"/>
-    </row>
-    <row r="215" ht="48" customHeight="1" spans="1:10">
+      <c r="H214" s="2"/>
+    </row>
+    <row r="215" ht="48" customHeight="1" spans="1:8">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3624,11 +3182,9 @@
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="2"/>
-      <c r="H215" s="4"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="4"/>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="H215" s="2"/>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3636,11 +3192,9 @@
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="2"/>
-      <c r="H216" s="4"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="4"/>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="H216" s="2"/>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3648,11 +3202,9 @@
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="2"/>
-      <c r="H217" s="4"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="4"/>
-    </row>
-    <row r="218" ht="48" customHeight="1" spans="1:10">
+      <c r="H217" s="2"/>
+    </row>
+    <row r="218" ht="48" customHeight="1" spans="1:8">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3660,11 +3212,9 @@
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="2"/>
-      <c r="H218" s="4"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="4"/>
-    </row>
-    <row r="219" ht="48" customHeight="1" spans="1:10">
+      <c r="H218" s="2"/>
+    </row>
+    <row r="219" ht="48" customHeight="1" spans="1:8">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3672,11 +3222,9 @@
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="2"/>
-      <c r="H219" s="4"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="4"/>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="H219" s="2"/>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3684,11 +3232,9 @@
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="2"/>
-      <c r="H220" s="4"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="4"/>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3696,167 +3242,139 @@
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="2"/>
-      <c r="H221" s="4"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="4"/>
-    </row>
-    <row r="222" ht="42" customHeight="1" spans="1:10">
+      <c r="H221" s="2"/>
+    </row>
+    <row r="222" ht="42" customHeight="1" spans="1:8">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
-      <c r="D222" s="5"/>
+      <c r="D222" s="4"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="2"/>
-      <c r="H222" s="4"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="4"/>
-    </row>
-    <row r="223" ht="42" customHeight="1" spans="1:10">
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" ht="42" customHeight="1" spans="1:8">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
-      <c r="D223" s="5"/>
+      <c r="D223" s="4"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="G223" s="2"/>
-      <c r="H223" s="4"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="4"/>
-    </row>
-    <row r="224" ht="28" customHeight="1" spans="1:10">
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" ht="28" customHeight="1" spans="1:8">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
-      <c r="D224" s="5"/>
+      <c r="D224" s="4"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="2"/>
-      <c r="H224" s="4"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="4"/>
-    </row>
-    <row r="225" ht="28" customHeight="1" spans="1:10">
+      <c r="H224" s="2"/>
+    </row>
+    <row r="225" ht="28" customHeight="1" spans="1:8">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
-      <c r="D225" s="5"/>
+      <c r="D225" s="4"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="G225" s="2"/>
-      <c r="H225" s="4"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="4"/>
-    </row>
-    <row r="226" ht="42" customHeight="1" spans="1:10">
+      <c r="H225" s="2"/>
+    </row>
+    <row r="226" ht="42" customHeight="1" spans="1:8">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
-      <c r="D226" s="5"/>
+      <c r="D226" s="4"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="2"/>
-      <c r="H226" s="4"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="4"/>
-    </row>
-    <row r="227" ht="42" customHeight="1" spans="1:10">
+      <c r="H226" s="2"/>
+    </row>
+    <row r="227" ht="42" customHeight="1" spans="1:8">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
-      <c r="D227" s="5"/>
+      <c r="D227" s="4"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="G227" s="2"/>
-      <c r="H227" s="4"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="4"/>
-    </row>
-    <row r="228" ht="42" customHeight="1" spans="1:10">
+      <c r="H227" s="2"/>
+    </row>
+    <row r="228" ht="42" customHeight="1" spans="1:8">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
-      <c r="D228" s="5"/>
+      <c r="D228" s="4"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="2"/>
-      <c r="H228" s="4"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="4"/>
-    </row>
-    <row r="229" ht="42" customHeight="1" spans="1:10">
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" ht="42" customHeight="1" spans="1:8">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
-      <c r="D229" s="5"/>
+      <c r="D229" s="4"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="2"/>
-      <c r="H229" s="4"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="4"/>
-    </row>
-    <row r="230" ht="42" customHeight="1" spans="1:10">
+      <c r="H229" s="2"/>
+    </row>
+    <row r="230" ht="42" customHeight="1" spans="1:8">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
-      <c r="D230" s="5"/>
+      <c r="D230" s="4"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="2"/>
-      <c r="H230" s="4"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="4"/>
-    </row>
-    <row r="231" ht="42" customHeight="1" spans="1:10">
+      <c r="H230" s="2"/>
+    </row>
+    <row r="231" ht="42" customHeight="1" spans="1:8">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
-      <c r="D231" s="5"/>
+      <c r="D231" s="4"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="2"/>
-      <c r="H231" s="4"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="4"/>
-    </row>
-    <row r="232" ht="42" customHeight="1" spans="1:10">
+      <c r="H231" s="2"/>
+    </row>
+    <row r="232" ht="42" customHeight="1" spans="1:8">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
-      <c r="D232" s="5"/>
+      <c r="D232" s="4"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="2"/>
-      <c r="H232" s="4"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="4"/>
-    </row>
-    <row r="233" ht="57" customHeight="1" spans="1:10">
+      <c r="H232" s="2"/>
+    </row>
+    <row r="233" ht="57" customHeight="1" spans="1:8">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
-      <c r="D233" s="5"/>
+      <c r="D233" s="4"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="2"/>
-      <c r="H233" s="4"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="4"/>
-    </row>
-    <row r="234" ht="57" customHeight="1" spans="1:10">
+      <c r="H233" s="2"/>
+    </row>
+    <row r="234" ht="57" customHeight="1" spans="1:8">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
-      <c r="D234" s="5"/>
+      <c r="D234" s="4"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="2"/>
-      <c r="H234" s="4"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="4"/>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="H234" s="2"/>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -3864,11 +3382,9 @@
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="2"/>
-      <c r="H235" s="4"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="4"/>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="H235" s="2"/>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -3876,11 +3392,9 @@
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="2"/>
-      <c r="H236" s="4"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="4"/>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="H236" s="2"/>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -3888,11 +3402,9 @@
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="2"/>
-      <c r="H237" s="4"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="4"/>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="H237" s="2"/>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -3900,11 +3412,9 @@
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="2"/>
-      <c r="H238" s="4"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="4"/>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="H238" s="2"/>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -3912,11 +3422,9 @@
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="2"/>
-      <c r="H239" s="4"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="4"/>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="H239" s="2"/>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -3924,11 +3432,9 @@
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="G240" s="2"/>
-      <c r="H240" s="4"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="4"/>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="H240" s="2"/>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -3936,107 +3442,89 @@
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
       <c r="G241" s="2"/>
-      <c r="H241" s="4"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="4"/>
-    </row>
-    <row r="242" ht="99" customHeight="1" spans="1:10">
+      <c r="H241" s="2"/>
+    </row>
+    <row r="242" ht="99" customHeight="1" spans="1:8">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
-      <c r="D242" s="5"/>
+      <c r="D242" s="4"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="G242" s="2"/>
-      <c r="H242" s="4"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="4"/>
-    </row>
-    <row r="243" ht="85" customHeight="1" spans="1:10">
+      <c r="H242" s="2"/>
+    </row>
+    <row r="243" ht="85" customHeight="1" spans="1:8">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
-      <c r="D243" s="5"/>
+      <c r="D243" s="4"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
       <c r="G243" s="2"/>
-      <c r="H243" s="4"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="4"/>
-    </row>
-    <row r="244" ht="71" customHeight="1" spans="1:10">
+      <c r="H243" s="2"/>
+    </row>
+    <row r="244" ht="71" customHeight="1" spans="1:8">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
-      <c r="D244" s="5"/>
+      <c r="D244" s="4"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="G244" s="2"/>
-      <c r="H244" s="4"/>
-      <c r="I244" s="2"/>
-      <c r="J244" s="4"/>
-    </row>
-    <row r="245" ht="71" customHeight="1" spans="1:10">
+      <c r="H244" s="2"/>
+    </row>
+    <row r="245" ht="71" customHeight="1" spans="1:8">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
-      <c r="D245" s="5"/>
+      <c r="D245" s="4"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="2"/>
-      <c r="H245" s="4"/>
-      <c r="I245" s="2"/>
-      <c r="J245" s="4"/>
-    </row>
-    <row r="246" ht="57" customHeight="1" spans="1:10">
+      <c r="H245" s="2"/>
+    </row>
+    <row r="246" ht="57" customHeight="1" spans="1:8">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
-      <c r="D246" s="5"/>
+      <c r="D246" s="4"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="2"/>
-      <c r="H246" s="4"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="4"/>
-    </row>
-    <row r="247" ht="42" customHeight="1" spans="1:10">
+      <c r="H246" s="2"/>
+    </row>
+    <row r="247" ht="42" customHeight="1" spans="1:8">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
-      <c r="D247" s="5"/>
+      <c r="D247" s="4"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="2"/>
-      <c r="H247" s="4"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="4"/>
-    </row>
-    <row r="248" ht="28" customHeight="1" spans="1:10">
+      <c r="H247" s="2"/>
+    </row>
+    <row r="248" ht="28" customHeight="1" spans="1:8">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
-      <c r="D248" s="5"/>
+      <c r="D248" s="4"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="2"/>
-      <c r="H248" s="4"/>
-      <c r="I248" s="2"/>
-      <c r="J248" s="4"/>
-    </row>
-    <row r="249" ht="28" customHeight="1" spans="1:10">
+      <c r="H248" s="2"/>
+    </row>
+    <row r="249" ht="28" customHeight="1" spans="1:8">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
-      <c r="D249" s="5"/>
+      <c r="D249" s="4"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="G249" s="2"/>
-      <c r="H249" s="4"/>
-      <c r="I249" s="2"/>
-      <c r="J249" s="4"/>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="H249" s="2"/>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -4044,23 +3532,19 @@
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
       <c r="G250" s="2"/>
-      <c r="H250" s="4"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="4"/>
-    </row>
-    <row r="251" ht="28" customHeight="1" spans="1:10">
+      <c r="H250" s="2"/>
+    </row>
+    <row r="251" ht="28" customHeight="1" spans="1:8">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
-      <c r="D251" s="5"/>
+      <c r="D251" s="4"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="G251" s="2"/>
-      <c r="H251" s="4"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="4"/>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="H251" s="2"/>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -4068,11 +3552,9 @@
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
       <c r="G252" s="2"/>
-      <c r="H252" s="4"/>
-      <c r="I252" s="2"/>
-      <c r="J252" s="4"/>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="H252" s="2"/>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -4080,11 +3562,9 @@
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="G253" s="2"/>
-      <c r="H253" s="4"/>
-      <c r="I253" s="2"/>
-      <c r="J253" s="4"/>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="H253" s="2"/>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -4092,405 +3572,337 @@
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="2"/>
-      <c r="H254" s="4"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="4"/>
-    </row>
-    <row r="255" ht="71" customHeight="1" spans="1:10">
+      <c r="H254" s="2"/>
+    </row>
+    <row r="255" ht="71" customHeight="1" spans="1:8">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
-      <c r="D255" s="5"/>
+      <c r="D255" s="4"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
       <c r="G255" s="2"/>
-      <c r="H255" s="4"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="4"/>
-    </row>
-    <row r="256" ht="57" customHeight="1" spans="1:10">
+      <c r="H255" s="2"/>
+    </row>
+    <row r="256" ht="57" customHeight="1" spans="1:8">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
-      <c r="D256" s="5"/>
+      <c r="D256" s="4"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="2"/>
-      <c r="H256" s="4"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="4"/>
-    </row>
-    <row r="257" ht="57" customHeight="1" spans="1:10">
+      <c r="H256" s="2"/>
+    </row>
+    <row r="257" ht="57" customHeight="1" spans="1:8">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
-      <c r="D257" s="5"/>
+      <c r="D257" s="4"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="2"/>
-      <c r="H257" s="4"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="4"/>
-    </row>
-    <row r="258" ht="71" customHeight="1" spans="1:10">
+      <c r="H257" s="2"/>
+    </row>
+    <row r="258" ht="71" customHeight="1" spans="1:8">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
-      <c r="D258" s="5"/>
+      <c r="D258" s="4"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="2"/>
-      <c r="H258" s="4"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="4"/>
-    </row>
-    <row r="259" ht="57" customHeight="1" spans="1:10">
+      <c r="H258" s="2"/>
+    </row>
+    <row r="259" ht="57" customHeight="1" spans="1:8">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
-      <c r="D259" s="5"/>
+      <c r="D259" s="4"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="2"/>
-      <c r="H259" s="4"/>
-      <c r="I259" s="2"/>
-      <c r="J259" s="4"/>
-    </row>
-    <row r="260" ht="57" customHeight="1" spans="1:10">
+      <c r="H259" s="2"/>
+    </row>
+    <row r="260" ht="57" customHeight="1" spans="1:8">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
-      <c r="D260" s="5"/>
+      <c r="D260" s="4"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="2"/>
-      <c r="H260" s="4"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="4"/>
-    </row>
-    <row r="261" ht="57" customHeight="1" spans="1:10">
+      <c r="H260" s="2"/>
+    </row>
+    <row r="261" ht="57" customHeight="1" spans="1:8">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
-      <c r="D261" s="5"/>
+      <c r="D261" s="4"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
       <c r="G261" s="2"/>
-      <c r="H261" s="4"/>
-      <c r="I261" s="2"/>
-      <c r="J261" s="4"/>
-    </row>
-    <row r="262" ht="71" customHeight="1" spans="1:10">
+      <c r="H261" s="2"/>
+    </row>
+    <row r="262" ht="71" customHeight="1" spans="1:8">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
-      <c r="D262" s="5"/>
+      <c r="D262" s="4"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="2"/>
-      <c r="H262" s="4"/>
-      <c r="I262" s="2"/>
-      <c r="J262" s="4"/>
-    </row>
-    <row r="263" ht="71" customHeight="1" spans="1:10">
+      <c r="H262" s="2"/>
+    </row>
+    <row r="263" ht="71" customHeight="1" spans="1:8">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
-      <c r="D263" s="5"/>
+      <c r="D263" s="4"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="2"/>
-      <c r="H263" s="4"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="4"/>
-    </row>
-    <row r="264" ht="42" customHeight="1" spans="1:10">
+      <c r="H263" s="2"/>
+    </row>
+    <row r="264" ht="42" customHeight="1" spans="1:8">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
-      <c r="D264" s="5"/>
+      <c r="D264" s="4"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
       <c r="G264" s="2"/>
-      <c r="H264" s="4"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="4"/>
-    </row>
-    <row r="265" ht="71" customHeight="1" spans="1:10">
+      <c r="H264" s="2"/>
+    </row>
+    <row r="265" ht="71" customHeight="1" spans="1:8">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
-      <c r="D265" s="5"/>
+      <c r="D265" s="4"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="2"/>
-      <c r="H265" s="4"/>
-      <c r="I265" s="2"/>
-      <c r="J265" s="4"/>
-    </row>
-    <row r="266" ht="57" customHeight="1" spans="1:10">
+      <c r="H265" s="2"/>
+    </row>
+    <row r="266" ht="57" customHeight="1" spans="1:8">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
-      <c r="D266" s="5"/>
+      <c r="D266" s="4"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
       <c r="G266" s="2"/>
-      <c r="H266" s="4"/>
-      <c r="I266" s="2"/>
-      <c r="J266" s="4"/>
-    </row>
-    <row r="267" ht="71" customHeight="1" spans="1:10">
+      <c r="H266" s="2"/>
+    </row>
+    <row r="267" ht="71" customHeight="1" spans="1:8">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
-      <c r="D267" s="5"/>
+      <c r="D267" s="4"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="G267" s="2"/>
-      <c r="H267" s="4"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="4"/>
-    </row>
-    <row r="268" ht="85" customHeight="1" spans="1:10">
+      <c r="H267" s="2"/>
+    </row>
+    <row r="268" ht="85" customHeight="1" spans="1:8">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
-      <c r="D268" s="5"/>
+      <c r="D268" s="4"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
       <c r="G268" s="2"/>
-      <c r="H268" s="4"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="4"/>
-    </row>
-    <row r="269" ht="57" customHeight="1" spans="1:10">
+      <c r="H268" s="2"/>
+    </row>
+    <row r="269" ht="57" customHeight="1" spans="1:8">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
-      <c r="D269" s="5"/>
+      <c r="D269" s="4"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="G269" s="2"/>
-      <c r="H269" s="4"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="4"/>
-    </row>
-    <row r="270" ht="42" customHeight="1" spans="1:10">
+      <c r="H269" s="2"/>
+    </row>
+    <row r="270" ht="42" customHeight="1" spans="1:8">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
-      <c r="D270" s="5"/>
+      <c r="D270" s="4"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
       <c r="G270" s="2"/>
-      <c r="H270" s="4"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="4"/>
-    </row>
-    <row r="271" ht="42" customHeight="1" spans="1:10">
+      <c r="H270" s="2"/>
+    </row>
+    <row r="271" ht="42" customHeight="1" spans="1:8">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
-      <c r="D271" s="5"/>
+      <c r="D271" s="4"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
       <c r="G271" s="2"/>
-      <c r="H271" s="4"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="4"/>
-    </row>
-    <row r="272" ht="42" customHeight="1" spans="1:10">
+      <c r="H271" s="2"/>
+    </row>
+    <row r="272" ht="42" customHeight="1" spans="1:8">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
-      <c r="D272" s="5"/>
+      <c r="D272" s="4"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
       <c r="G272" s="2"/>
-      <c r="H272" s="4"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="4"/>
-    </row>
-    <row r="273" ht="57" customHeight="1" spans="1:10">
+      <c r="H272" s="2"/>
+    </row>
+    <row r="273" ht="57" customHeight="1" spans="1:8">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
-      <c r="D273" s="5"/>
+      <c r="D273" s="4"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
       <c r="G273" s="2"/>
-      <c r="H273" s="4"/>
-      <c r="I273" s="2"/>
-      <c r="J273" s="4"/>
-    </row>
-    <row r="274" ht="42" customHeight="1" spans="1:10">
+      <c r="H273" s="2"/>
+    </row>
+    <row r="274" ht="42" customHeight="1" spans="1:8">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
-      <c r="D274" s="5"/>
+      <c r="D274" s="4"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="G274" s="2"/>
-      <c r="H274" s="4"/>
-      <c r="I274" s="2"/>
-      <c r="J274" s="4"/>
-    </row>
-    <row r="275" ht="42" customHeight="1" spans="1:10">
+      <c r="H274" s="2"/>
+    </row>
+    <row r="275" ht="42" customHeight="1" spans="1:8">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
-      <c r="D275" s="5"/>
+      <c r="D275" s="4"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
       <c r="G275" s="2"/>
-      <c r="H275" s="4"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="4"/>
-    </row>
-    <row r="276" ht="42" customHeight="1" spans="1:10">
+      <c r="H275" s="2"/>
+    </row>
+    <row r="276" ht="42" customHeight="1" spans="1:8">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
-      <c r="D276" s="5"/>
+      <c r="D276" s="4"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
       <c r="G276" s="2"/>
-      <c r="H276" s="4"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="4"/>
-    </row>
-    <row r="277" ht="57" customHeight="1" spans="1:10">
+      <c r="H276" s="2"/>
+    </row>
+    <row r="277" ht="57" customHeight="1" spans="1:8">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
-      <c r="D277" s="5"/>
+      <c r="D277" s="4"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
       <c r="G277" s="2"/>
-      <c r="H277" s="4"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="4"/>
-    </row>
-    <row r="278" ht="28" customHeight="1" spans="1:10">
+      <c r="H277" s="2"/>
+    </row>
+    <row r="278" ht="28" customHeight="1" spans="1:8">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
-      <c r="D278" s="5"/>
+      <c r="D278" s="4"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
       <c r="G278" s="2"/>
-      <c r="H278" s="4"/>
-      <c r="I278" s="2"/>
-      <c r="J278" s="4"/>
-    </row>
-    <row r="279" ht="42" customHeight="1" spans="1:10">
+      <c r="H278" s="2"/>
+    </row>
+    <row r="279" ht="42" customHeight="1" spans="1:8">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
-      <c r="D279" s="5"/>
+      <c r="D279" s="4"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
       <c r="G279" s="2"/>
-      <c r="H279" s="4"/>
-      <c r="I279" s="2"/>
-      <c r="J279" s="4"/>
-    </row>
-    <row r="280" ht="42" customHeight="1" spans="1:10">
+      <c r="H279" s="2"/>
+    </row>
+    <row r="280" ht="42" customHeight="1" spans="1:8">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
-      <c r="D280" s="5"/>
+      <c r="D280" s="4"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
       <c r="G280" s="2"/>
-      <c r="H280" s="4"/>
-      <c r="I280" s="2"/>
-      <c r="J280" s="4"/>
-    </row>
-    <row r="281" ht="57" customHeight="1" spans="1:10">
+      <c r="H280" s="2"/>
+    </row>
+    <row r="281" ht="57" customHeight="1" spans="1:8">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
-      <c r="D281" s="5"/>
+      <c r="D281" s="4"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
       <c r="G281" s="2"/>
-      <c r="H281" s="4"/>
-      <c r="I281" s="2"/>
-      <c r="J281" s="4"/>
-    </row>
-    <row r="282" ht="57" customHeight="1" spans="1:10">
+      <c r="H281" s="2"/>
+    </row>
+    <row r="282" ht="57" customHeight="1" spans="1:8">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
-      <c r="D282" s="5"/>
+      <c r="D282" s="4"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
       <c r="G282" s="2"/>
-      <c r="H282" s="4"/>
-      <c r="I282" s="2"/>
-      <c r="J282" s="4"/>
-    </row>
-    <row r="283" ht="57" customHeight="1" spans="1:10">
+      <c r="H282" s="2"/>
+    </row>
+    <row r="283" ht="57" customHeight="1" spans="1:8">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
-      <c r="D283" s="5"/>
+      <c r="D283" s="4"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
       <c r="G283" s="2"/>
-      <c r="H283" s="4"/>
-      <c r="I283" s="2"/>
-      <c r="J283" s="4"/>
-    </row>
-    <row r="284" ht="57" customHeight="1" spans="1:10">
+      <c r="H283" s="2"/>
+    </row>
+    <row r="284" ht="57" customHeight="1" spans="1:8">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
-      <c r="D284" s="5"/>
+      <c r="D284" s="4"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
       <c r="G284" s="2"/>
-      <c r="H284" s="4"/>
-      <c r="I284" s="2"/>
-      <c r="J284" s="4"/>
-    </row>
-    <row r="285" ht="57" customHeight="1" spans="1:10">
+      <c r="H284" s="2"/>
+    </row>
+    <row r="285" ht="57" customHeight="1" spans="1:8">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
-      <c r="D285" s="5"/>
+      <c r="D285" s="4"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
       <c r="G285" s="2"/>
-      <c r="H285" s="4"/>
-      <c r="I285" s="2"/>
-      <c r="J285" s="4"/>
-    </row>
-    <row r="286" ht="57" customHeight="1" spans="1:10">
+      <c r="H285" s="2"/>
+    </row>
+    <row r="286" ht="57" customHeight="1" spans="1:8">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
-      <c r="D286" s="5"/>
+      <c r="D286" s="4"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
       <c r="G286" s="2"/>
-      <c r="H286" s="4"/>
-      <c r="I286" s="2"/>
-      <c r="J286" s="4"/>
-    </row>
-    <row r="287" ht="42" customHeight="1" spans="1:10">
+      <c r="H286" s="2"/>
+    </row>
+    <row r="287" ht="42" customHeight="1" spans="1:8">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
-      <c r="D287" s="5"/>
+      <c r="D287" s="4"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
       <c r="G287" s="2"/>
-      <c r="H287" s="4"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="4"/>
+      <c r="H287" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
